--- a/Jogos_do_Dia/2023-10-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -617,61 +617,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z2" t="n">
         <v>3</v>
@@ -717,40 +717,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.89</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I3" t="n">
-        <v>3.98</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="K3" t="n">
-        <v>2.94</v>
+        <v>2.85</v>
       </c>
       <c r="L3" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S3" t="n">
         <v>2.25</v>
@@ -759,19 +759,19 @@
         <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="X3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
@@ -792,7 +792,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -804,86 +804,86 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Mirandés</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>4.19</v>
       </c>
       <c r="H4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.35</v>
+        <v>2.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="N4" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>6.95</v>
+        <v>6.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="X4" t="n">
         <v>1.33</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AD4" t="n">
         <v>2.8</v>
@@ -926,13 +926,13 @@
         <v>4.56</v>
       </c>
       <c r="J5" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1.53</v>
@@ -947,16 +947,16 @@
         <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.5</v>
       </c>
-      <c r="S5" t="n">
-        <v>2.53</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -992,7 +992,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1004,86 +1004,86 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mirandés</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>Sepsi</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.19</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.19</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="N6" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="P6" t="n">
-        <v>6.5</v>
+        <v>6.95</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="S6" t="n">
-        <v>2.23</v>
+        <v>2.41</v>
       </c>
       <c r="T6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="X6" t="n">
         <v>1.33</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.32</v>
+        <v>1.69</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AD6" t="n">
         <v>2.8</v>
@@ -1126,13 +1126,13 @@
         <v>2.37</v>
       </c>
       <c r="J7" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="M7" t="n">
         <v>1.41</v>
@@ -1153,10 +1153,10 @@
         <v>3.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.9</v>
@@ -1226,13 +1226,13 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.5</v>
@@ -1253,10 +1253,10 @@
         <v>2.65</v>
       </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1326,13 +1326,13 @@
         <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>1.5</v>
@@ -1353,10 +1353,10 @@
         <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
@@ -1426,13 +1426,13 @@
         <v>2.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5.05</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="M10" t="n">
         <v>1.4</v>
@@ -1453,10 +1453,10 @@
         <v>3.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
         <v>1.91</v>
